--- a/OLS/SIS/Input and Constants/sis_in_bo.xlsx
+++ b/OLS/SIS/Input and Constants/sis_in_bo.xlsx
@@ -161,10 +161,10 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.29"/>
@@ -211,13 +211,13 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>58.5</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0.5</v>

--- a/OLS/SIS/Input and Constants/sis_in_bo.xlsx
+++ b/OLS/SIS/Input and Constants/sis_in_bo.xlsx
@@ -161,10 +161,10 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.29"/>

--- a/OLS/SIS/Input and Constants/sis_in_bo.xlsx
+++ b/OLS/SIS/Input and Constants/sis_in_bo.xlsx
@@ -161,10 +161,10 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.29"/>
@@ -211,13 +211,13 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>10</v>
+        <v>84.05338917</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>12</v>
+        <v>-1.20192</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0.5</v>

--- a/OLS/SIS/Input and Constants/sis_in_bo.xlsx
+++ b/OLS/SIS/Input and Constants/sis_in_bo.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -94,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -102,6 +102,7 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -128,7 +129,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -141,6 +142,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -161,20 +163,20 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.58"/>
+    <col min="1" max="1" width="25.86" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="2" max="2" width="14.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="3" max="3" width="10.53125" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="4" max="4" width="30.28" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="5" max="5" width="19.14" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="6" max="6" width="20.71" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="7" max="7" width="19.85" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="8" max="8" width="10.99" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="9" max="9" width="18.58" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -210,11 +212,11 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>84.05338917</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>-1.20192</v>
+      <c r="B2" s="2">
+        <v>270.45614135003501</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-44.082879217331559</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -362,10 +364,10 @@
       <c r="I18" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51181102362205" footer="0.51181102362205"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <headerFooter differentOddEven="false" differentFirst="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>

--- a/OLS/SIS/Input and Constants/sis_in_bo.xlsx
+++ b/OLS/SIS/Input and Constants/sis_in_bo.xlsx
@@ -213,10 +213,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="2">
-        <v>270.45614135003501</v>
+        <v>120.98679351540706</v>
       </c>
       <c r="C2" s="2">
-        <v>-44.082879217331559</v>
+        <v>-49.326644649697784</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
